--- a/Tables/decomposition_te_soft.xlsx
+++ b/Tables/decomposition_te_soft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B15C1-2F3F-4461-BE56-6C669E46C0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F5FE34-455E-4C77-9C68-AF2364AD39B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10695" windowWidth="29040" windowHeight="15720" xr2:uid="{3609313A-5DBD-4B39-A88D-6C774A33806E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3609313A-5DBD-4B39-A88D-6C774A33806E}"/>
   </bookViews>
   <sheets>
     <sheet name="decomposition_te_soft" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -154,11 +154,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,6 +192,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,57 +252,57 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-128.6</v>
+            <v>-109.8</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-59.9</v>
+            <v>-43.2</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-23.0</v>
+            <v>-20.7</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-45.7</v>
+            <v>-45.9</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.0091</v>
+            <v>0.0092</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-5.17</v>
+            <v>-5.09</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-0.27</v>
+            <v>-0.12</v>
           </cell>
           <cell r="I5" t="str">
-            <v>-1.36</v>
+            <v>-1.41</v>
           </cell>
           <cell r="J5" t="str">
-            <v>-3.55</v>
+            <v>-3.56</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(140.6)</v>
+            <v>(139.0)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(84.2)</v>
+            <v>(81.2)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(32.3)</v>
+            <v>(32.1)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(113.7)</v>
+            <v>(113.8)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(0.020)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(6.32)</v>
+            <v>(6.33)</v>
           </cell>
           <cell r="H6" t="str">
             <v>(2.49)</v>
           </cell>
           <cell r="I6" t="str">
-            <v>(2.24)</v>
+            <v>(2.25)</v>
           </cell>
           <cell r="J6" t="str">
             <v>(6.25)</v>
@@ -297,31 +310,31 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-222.8*</v>
+            <v>-194.0</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-84.4</v>
+            <v>-58.5</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-46.7</v>
+            <v>-43.4</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-91.7</v>
+            <v>-92.1</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.0025</v>
+            <v>-0.0023</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-3.98</v>
+            <v>-3.92</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-1.48</v>
+            <v>-1.27</v>
           </cell>
           <cell r="I8" t="str">
-            <v>-2.14</v>
+            <v>-2.28</v>
           </cell>
           <cell r="J8" t="str">
-            <v>-0.36</v>
+            <v>-0.37</v>
           </cell>
         </row>
         <row r="9">
@@ -329,13 +342,13 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(131.6)</v>
+            <v>(128.7)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(95.2)</v>
+            <v>(90.9)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(34.1)</v>
+            <v>(33.8)</v>
           </cell>
           <cell r="E9" t="str">
             <v>(95.8)</v>
@@ -344,10 +357,10 @@
             <v>(0.020)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(6.09)</v>
+            <v>(6.08)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(2.55)</v>
+            <v>(2.56)</v>
           </cell>
           <cell r="I9" t="str">
             <v>(1.99)</v>
@@ -358,42 +371,42 @@
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>7526</v>
+            <v>7525</v>
           </cell>
           <cell r="C11" t="str">
-            <v>7526</v>
+            <v>7525</v>
           </cell>
           <cell r="D11" t="str">
-            <v>7526</v>
+            <v>7525</v>
           </cell>
           <cell r="E11" t="str">
-            <v>7526</v>
+            <v>7525</v>
           </cell>
           <cell r="F11" t="str">
-            <v>7526</v>
+            <v>7525</v>
           </cell>
           <cell r="G11" t="str">
-            <v>7526</v>
+            <v>7525</v>
           </cell>
           <cell r="H11" t="str">
-            <v>7526</v>
+            <v>7525</v>
           </cell>
           <cell r="I11" t="str">
-            <v>7526</v>
+            <v>7525</v>
           </cell>
           <cell r="J11" t="str">
-            <v>7526</v>
+            <v>7525</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.013</v>
+            <v>0.014</v>
           </cell>
           <cell r="C12" t="str">
-            <v>0.013</v>
+            <v>0.011</v>
           </cell>
           <cell r="D12" t="str">
-            <v>0.026</v>
+            <v>0.025</v>
           </cell>
           <cell r="E12" t="str">
             <v>0.012</v>
@@ -405,7 +418,7 @@
             <v>0.033</v>
           </cell>
           <cell r="H12" t="str">
-            <v>0.013</v>
+            <v>0.012</v>
           </cell>
           <cell r="I12" t="str">
             <v>0.035</v>
@@ -416,31 +429,31 @@
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>3295.4</v>
+            <v>3271.0</v>
           </cell>
           <cell r="C13" t="str">
-            <v>1109.2</v>
+            <v>1087.4</v>
           </cell>
           <cell r="D13" t="str">
-            <v>471.2</v>
+            <v>468.0</v>
           </cell>
           <cell r="E13" t="str">
-            <v>1715.0</v>
+            <v>1715.6</v>
           </cell>
           <cell r="F13" t="str">
             <v>0.44</v>
           </cell>
           <cell r="G13" t="str">
-            <v>248.7</v>
+            <v>248.8</v>
           </cell>
           <cell r="H13" t="str">
-            <v>47.1</v>
+            <v>47.0</v>
           </cell>
           <cell r="I13" t="str">
-            <v>38.0</v>
+            <v>38.1</v>
           </cell>
           <cell r="J13" t="str">
-            <v>163.5</v>
+            <v>163.6</v>
           </cell>
         </row>
       </sheetData>
@@ -749,7 +762,7 @@
   <dimension ref="A2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F22"/>
+      <selection activeCell="F22" sqref="A2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,23 +823,23 @@
       </c>
       <c r="B4" s="1" t="str">
         <f>[1]decomposition_te_soft!B5</f>
-        <v>-128.6</v>
+        <v>-109.8</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>[1]decomposition_te_soft!C5</f>
-        <v>-59.9</v>
+        <v>-43.2</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>[1]decomposition_te_soft!D5</f>
-        <v>-23.0</v>
+        <v>-20.7</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>[1]decomposition_te_soft!E5</f>
-        <v>-45.7</v>
+        <v>-45.9</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>[1]decomposition_te_soft!F5</f>
-        <v>0.0091</v>
+        <v>0.0092</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -837,19 +850,19 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]decomposition_te_soft!B6</f>
-        <v>(140.6)</v>
+        <v>(139.0)</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]decomposition_te_soft!C6</f>
-        <v>(84.2)</v>
+        <v>(81.2)</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]decomposition_te_soft!D6</f>
-        <v>(32.3)</v>
+        <v>(32.1)</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]decomposition_te_soft!E6</f>
-        <v>(113.7)</v>
+        <v>(113.8)</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]decomposition_te_soft!F6</f>
@@ -863,38 +876,38 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]decomposition_te_soft!B8</f>
-        <v>-222.8*</v>
+        <v>-194.0</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]decomposition_te_soft!C8</f>
-        <v>-84.4</v>
+        <v>-58.5</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]decomposition_te_soft!D8</f>
-        <v>-46.7</v>
+        <v>-43.4</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]decomposition_te_soft!E8</f>
-        <v>-91.7</v>
+        <v>-92.1</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]decomposition_te_soft!F8</f>
-        <v>-0.0025</v>
+        <v>-0.0023</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="str">
         <f>[1]decomposition_te_soft!B9</f>
-        <v>(131.6)</v>
+        <v>(128.7)</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]decomposition_te_soft!C9</f>
-        <v>(95.2)</v>
+        <v>(90.9)</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]decomposition_te_soft!D9</f>
-        <v>(34.1)</v>
+        <v>(33.8)</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]decomposition_te_soft!E9</f>
@@ -915,23 +928,23 @@
       </c>
       <c r="B9" s="10" t="str">
         <f>[1]decomposition_te_soft!B11</f>
-        <v>7526</v>
+        <v>7525</v>
       </c>
       <c r="C9" s="10" t="str">
         <f>[1]decomposition_te_soft!C11</f>
-        <v>7526</v>
+        <v>7525</v>
       </c>
       <c r="D9" s="10" t="str">
         <f>[1]decomposition_te_soft!D11</f>
-        <v>7526</v>
+        <v>7525</v>
       </c>
       <c r="E9" s="10" t="str">
         <f>[1]decomposition_te_soft!E11</f>
-        <v>7526</v>
+        <v>7525</v>
       </c>
       <c r="F9" s="10" t="str">
         <f>[1]decomposition_te_soft!F11</f>
-        <v>7526</v>
+        <v>7525</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -941,15 +954,15 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>[1]decomposition_te_soft!B12</f>
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]decomposition_te_soft!C12</f>
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>[1]decomposition_te_soft!D12</f>
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>[1]decomposition_te_soft!E12</f>
@@ -967,19 +980,19 @@
       </c>
       <c r="B11" s="8" t="str">
         <f>[1]decomposition_te_soft!B13</f>
-        <v>3295.4</v>
+        <v>3271.0</v>
       </c>
       <c r="C11" s="8" t="str">
         <f>[1]decomposition_te_soft!C13</f>
-        <v>1109.2</v>
+        <v>1087.4</v>
       </c>
       <c r="D11" s="8" t="str">
         <f>[1]decomposition_te_soft!D13</f>
-        <v>471.2</v>
+        <v>468.0</v>
       </c>
       <c r="E11" s="8" t="str">
         <f>[1]decomposition_te_soft!E13</f>
-        <v>1715.0</v>
+        <v>1715.6</v>
       </c>
       <c r="F11" s="8" t="str">
         <f>[1]decomposition_te_soft!F13</f>
@@ -1011,7 +1024,7 @@
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
@@ -1031,7 +1044,7 @@
         <f>[1]decomposition_te_soft!J2</f>
         <v>(9)</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1039,26 +1052,26 @@
       </c>
       <c r="B15" s="1" t="str">
         <f>[1]decomposition_te_soft!G5</f>
-        <v>-5.17</v>
+        <v>-5.09</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]decomposition_te_soft!H5</f>
-        <v>-0.27</v>
+        <v>-0.12</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]decomposition_te_soft!I5</f>
-        <v>-1.36</v>
+        <v>-1.41</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>[1]decomposition_te_soft!J5</f>
-        <v>-3.55</v>
+        <v>-3.56</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="str">
         <f>[1]decomposition_te_soft!G6</f>
-        <v>(6.32)</v>
+        <v>(6.33)</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]decomposition_te_soft!H6</f>
@@ -1066,7 +1079,7 @@
       </c>
       <c r="D16" s="1" t="str">
         <f>[1]decomposition_te_soft!I6</f>
-        <v>(2.24)</v>
+        <v>(2.25)</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>[1]decomposition_te_soft!J6</f>
@@ -1080,19 +1093,19 @@
       </c>
       <c r="B17" s="1" t="str">
         <f>[1]decomposition_te_soft!G8</f>
-        <v>-3.98</v>
+        <v>-3.92</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]decomposition_te_soft!H8</f>
-        <v>-1.48</v>
+        <v>-1.27</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]decomposition_te_soft!I8</f>
-        <v>-2.14</v>
+        <v>-2.28</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>[1]decomposition_te_soft!J8</f>
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -1102,11 +1115,11 @@
       </c>
       <c r="B18" s="1" t="str">
         <f>[1]decomposition_te_soft!G9</f>
-        <v>(6.09)</v>
+        <v>(6.08)</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]decomposition_te_soft!H9</f>
-        <v>(2.55)</v>
+        <v>(2.56)</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>[1]decomposition_te_soft!I9</f>
@@ -1119,27 +1132,32 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="4"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="4" t="str">
         <f>[1]decomposition_te_soft!G11</f>
-        <v>7526</v>
-      </c>
-      <c r="C20" s="10" t="str">
+        <v>7525</v>
+      </c>
+      <c r="C20" s="4" t="str">
         <f>[1]decomposition_te_soft!H11</f>
-        <v>7526</v>
-      </c>
-      <c r="D20" s="10" t="str">
+        <v>7525</v>
+      </c>
+      <c r="D20" s="4" t="str">
         <f>[1]decomposition_te_soft!I11</f>
-        <v>7526</v>
-      </c>
-      <c r="E20" s="10" t="str">
+        <v>7525</v>
+      </c>
+      <c r="E20" s="4" t="str">
         <f>[1]decomposition_te_soft!J11</f>
-        <v>7526</v>
+        <v>7525</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -1153,7 +1171,7 @@
       </c>
       <c r="C21" s="1" t="str">
         <f>[1]decomposition_te_soft!H12</f>
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>[1]decomposition_te_soft!I12</f>
@@ -1171,21 +1189,21 @@
       </c>
       <c r="B22" s="8" t="str">
         <f>[1]decomposition_te_soft!G13</f>
-        <v>248.7</v>
+        <v>248.8</v>
       </c>
       <c r="C22" s="8" t="str">
         <f>[1]decomposition_te_soft!H13</f>
-        <v>47.1</v>
+        <v>47.0</v>
       </c>
       <c r="D22" s="8" t="str">
         <f>[1]decomposition_te_soft!I13</f>
-        <v>38.0</v>
+        <v>38.1</v>
       </c>
       <c r="E22" s="8" t="str">
         <f>[1]decomposition_te_soft!J13</f>
-        <v>163.5</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>163.6</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="F23" s="4"/>

--- a/Tables/decomposition_te_soft.xlsx
+++ b/Tables/decomposition_te_soft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F5FE34-455E-4C77-9C68-AF2364AD39B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F4277A-DB7B-4A13-A771-65C05F242B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3609313A-5DBD-4B39-A88D-6C774A33806E}"/>
+    <workbookView xWindow="-20865" yWindow="-15060" windowWidth="19185" windowHeight="11265" xr2:uid="{3609313A-5DBD-4B39-A88D-6C774A33806E}"/>
   </bookViews>
   <sheets>
     <sheet name="decomposition_te_soft" sheetId="1" r:id="rId1"/>
@@ -38,17 +38,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Observations</t>
   </si>
   <si>
+    <t>Forced commitment</t>
+  </si>
+  <si>
+    <t>Choice commitment</t>
+  </si>
+  <si>
     <t>FC</t>
   </si>
   <si>
-    <t>Payments to capital</t>
-  </si>
-  <si>
     <t>Interest</t>
   </si>
   <si>
@@ -58,31 +61,25 @@
     <t>APR</t>
   </si>
   <si>
-    <t>Payment to capital (APR)</t>
-  </si>
-  <si>
-    <t>Fees (APR)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>R-squared</t>
   </si>
   <si>
-    <t>Cost of losing pawn (APR)</t>
-  </si>
-  <si>
     <t>Control Mean</t>
   </si>
   <si>
-    <t>Recovery</t>
-  </si>
-  <si>
-    <t>Forced soft</t>
-  </si>
-  <si>
-    <t>Choice soft</t>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Interest/Loan</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>(6)</t>
   </si>
 </sst>
 </file>
@@ -176,9 +173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,7 +187,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -222,6 +219,9 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="A2" t="str">
+            <v/>
+          </cell>
           <cell r="B2" t="str">
             <v>(1)</v>
           </cell>
@@ -234,107 +234,89 @@
           <cell r="E2" t="str">
             <v>(4)</v>
           </cell>
-          <cell r="F2" t="str">
-            <v>(5)</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>(6)</v>
-          </cell>
           <cell r="H2" t="str">
             <v>(7)</v>
           </cell>
           <cell r="I2" t="str">
             <v>(8)</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>(9)</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-109.8</v>
+            <v>-22.1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-43.2</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>-20.7</v>
+            <v>-6.71</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-45.9</v>
+            <v>-15.4</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.0092</v>
+            <v>0.93</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-5.09</v>
+            <v>-0.0093</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-0.12</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>-1.41</v>
+            <v>-0.014</v>
           </cell>
           <cell r="J5" t="str">
-            <v>-3.56</v>
+            <v>0.0048</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>0.000081</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(139.0)</v>
+            <v>(130.2)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(81.2)</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>(32.1)</v>
+            <v>(43.2)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(113.8)</v>
+            <v>(126.5)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.020)</v>
+            <v>(3.97)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(6.33)</v>
+            <v>(0.030)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(2.49)</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>(2.25)</v>
+            <v>(0.013)</v>
           </cell>
           <cell r="J6" t="str">
-            <v>(6.25)</v>
+            <v>(0.034)</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>(0.0013)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-194.0</v>
+            <v>-106.6</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-58.5</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>-43.4</v>
+            <v>-39.8</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-92.1</v>
+            <v>-66.8</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.0023</v>
+            <v>-2.29</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-3.92</v>
+            <v>-0.019</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-1.27</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>-2.28</v>
+            <v>-0.0051</v>
           </cell>
           <cell r="J8" t="str">
-            <v>-0.37</v>
+            <v>-0.013</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>-0.00067</v>
           </cell>
         </row>
         <row r="9">
@@ -342,118 +324,106 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(128.7)</v>
+            <v>(114.7)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(90.9)</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>(33.8)</v>
+            <v>(32.7)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(95.8)</v>
+            <v>(116.0)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.020)</v>
+            <v>(3.31)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(6.08)</v>
+            <v>(0.030)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(2.56)</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>(1.99)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="J9" t="str">
-            <v>(6.21)</v>
+            <v>(0.033)</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>(0.0015)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>7525</v>
+            <v>5144</v>
           </cell>
           <cell r="C11" t="str">
-            <v>7525</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>7525</v>
+            <v>5144</v>
           </cell>
           <cell r="E11" t="str">
-            <v>7525</v>
+            <v>5144</v>
           </cell>
           <cell r="F11" t="str">
-            <v>7525</v>
+            <v>5144</v>
           </cell>
           <cell r="G11" t="str">
-            <v>7525</v>
+            <v>5144</v>
           </cell>
           <cell r="H11" t="str">
-            <v>7525</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>7525</v>
+            <v>5144</v>
           </cell>
           <cell r="J11" t="str">
-            <v>7525</v>
+            <v>5144</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>5144</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.014</v>
+            <v>0.007</v>
           </cell>
           <cell r="C12" t="str">
-            <v>0.011</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>0.025</v>
+            <v>0.023</v>
           </cell>
           <cell r="E12" t="str">
-            <v>0.012</v>
+            <v>0.006</v>
           </cell>
           <cell r="F12" t="str">
-            <v>0.019</v>
+            <v>0.003</v>
           </cell>
           <cell r="G12" t="str">
-            <v>0.033</v>
+            <v>0.004</v>
           </cell>
           <cell r="H12" t="str">
-            <v>0.012</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>0.035</v>
+            <v>0.041</v>
           </cell>
           <cell r="J12" t="str">
-            <v>0.025</v>
+            <v>0.007</v>
+          </cell>
+          <cell r="K12" t="str">
+            <v>0.004</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>3271.0</v>
+            <v>1851.0</v>
           </cell>
           <cell r="C13" t="str">
-            <v>1087.4</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>468.0</v>
+            <v>545.9</v>
           </cell>
           <cell r="E13" t="str">
-            <v>1715.6</v>
+            <v>1305.1</v>
           </cell>
           <cell r="F13" t="str">
-            <v>0.44</v>
+            <v>5.82</v>
           </cell>
           <cell r="G13" t="str">
-            <v>248.8</v>
+            <v>0.86</v>
           </cell>
           <cell r="H13" t="str">
-            <v>47.0</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>38.1</v>
+            <v>0.24</v>
           </cell>
           <cell r="J13" t="str">
-            <v>163.6</v>
+            <v>0.62</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>0.0027</v>
           </cell>
         </row>
       </sheetData>
@@ -759,455 +729,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FE739-9E07-4309-AA70-62919A677514}">
-  <dimension ref="A2:M23"/>
+  <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="A2:F22"/>
+      <selection activeCell="A2" sqref="A2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="str">
+        <f>[1]decomposition_te_soft!A2</f>
+        <v/>
+      </c>
+      <c r="B3" s="5" t="str">
         <f>[1]decomposition_te_soft!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="5" t="str">
         <f>[1]decomposition_te_soft!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="5" t="str">
         <f>[1]decomposition_te_soft!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="E3" s="5" t="str">
         <f>[1]decomposition_te_soft!E2</f>
         <v>(4)</v>
       </c>
-      <c r="F3" s="6" t="str">
-        <f>[1]decomposition_te_soft!F2</f>
-        <v>(5)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>[1]decomposition_te_soft!B5</f>
-        <v>-109.8</v>
+        <v>-22.1</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>[1]decomposition_te_soft!C5</f>
-        <v>-43.2</v>
+        <v>-6.71</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>[1]decomposition_te_soft!D5</f>
-        <v>-20.7</v>
+        <f>[1]decomposition_te_soft!E5</f>
+        <v>-15.4</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>[1]decomposition_te_soft!E5</f>
-        <v>-45.9</v>
-      </c>
-      <c r="F4" s="1" t="str">
         <f>[1]decomposition_te_soft!F5</f>
-        <v>0.0092</v>
-      </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.93</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>[1]decomposition_te_soft!A9</f>
         <v/>
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]decomposition_te_soft!B6</f>
-        <v>(139.0)</v>
+        <v>(130.2)</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]decomposition_te_soft!C6</f>
-        <v>(81.2)</v>
+        <v>(43.2)</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>[1]decomposition_te_soft!D6</f>
-        <v>(32.1)</v>
+        <f>[1]decomposition_te_soft!E6</f>
+        <v>(126.5)</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>[1]decomposition_te_soft!E6</f>
-        <v>(113.8)</v>
-      </c>
-      <c r="F5" s="1" t="str">
         <f>[1]decomposition_te_soft!F6</f>
-        <v>(0.020)</v>
-      </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>(3.97)</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]decomposition_te_soft!B8</f>
-        <v>-194.0</v>
+        <v>-106.6</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]decomposition_te_soft!C8</f>
-        <v>-58.5</v>
+        <v>-39.8</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>[1]decomposition_te_soft!D8</f>
-        <v>-43.4</v>
+        <f>[1]decomposition_te_soft!E8</f>
+        <v>-66.8</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>[1]decomposition_te_soft!E8</f>
-        <v>-92.1</v>
-      </c>
-      <c r="F6" s="1" t="str">
         <f>[1]decomposition_te_soft!F8</f>
-        <v>-0.0023</v>
-      </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>-2.29</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="str">
         <f>[1]decomposition_te_soft!B9</f>
-        <v>(128.7)</v>
+        <v>(114.7)</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]decomposition_te_soft!C9</f>
-        <v>(90.9)</v>
+        <v>(32.7)</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>[1]decomposition_te_soft!D9</f>
-        <v>(33.8)</v>
+        <f>[1]decomposition_te_soft!E9</f>
+        <v>(116.0)</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>[1]decomposition_te_soft!E9</f>
-        <v>(95.8)</v>
-      </c>
-      <c r="F7" s="1" t="str">
         <f>[1]decomposition_te_soft!F9</f>
-        <v>(0.020)</v>
-      </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+        <v>(3.31)</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="9" t="str">
         <f>[1]decomposition_te_soft!B11</f>
-        <v>7525</v>
-      </c>
-      <c r="C9" s="10" t="str">
+        <v>5144</v>
+      </c>
+      <c r="C9" s="9" t="str">
         <f>[1]decomposition_te_soft!C11</f>
-        <v>7525</v>
-      </c>
-      <c r="D9" s="10" t="str">
-        <f>[1]decomposition_te_soft!D11</f>
-        <v>7525</v>
-      </c>
-      <c r="E9" s="10" t="str">
+        <v>5144</v>
+      </c>
+      <c r="D9" s="9" t="str">
         <f>[1]decomposition_te_soft!E11</f>
-        <v>7525</v>
-      </c>
-      <c r="F9" s="10" t="str">
+        <v>5144</v>
+      </c>
+      <c r="E9" s="9" t="str">
         <f>[1]decomposition_te_soft!F11</f>
-        <v>7525</v>
-      </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5144</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>[1]decomposition_te_soft!B12</f>
-        <v>0.014</v>
+        <v>0.007</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]decomposition_te_soft!C12</f>
-        <v>0.011</v>
+        <v>0.023</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>[1]decomposition_te_soft!D12</f>
-        <v>0.025</v>
+        <f>[1]decomposition_te_soft!E12</f>
+        <v>0.006</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>[1]decomposition_te_soft!E12</f>
-        <v>0.012</v>
-      </c>
-      <c r="F10" s="1" t="str">
         <f>[1]decomposition_te_soft!F12</f>
-        <v>0.019</v>
-      </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8" t="str">
+        <v>0.003</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="str">
         <f>[1]decomposition_te_soft!B13</f>
-        <v>3271.0</v>
-      </c>
-      <c r="C11" s="8" t="str">
+        <v>1851.0</v>
+      </c>
+      <c r="C11" s="7" t="str">
         <f>[1]decomposition_te_soft!C13</f>
-        <v>1087.4</v>
-      </c>
-      <c r="D11" s="8" t="str">
-        <f>[1]decomposition_te_soft!D13</f>
-        <v>468.0</v>
-      </c>
-      <c r="E11" s="8" t="str">
+        <v>545.9</v>
+      </c>
+      <c r="D11" s="7" t="str">
         <f>[1]decomposition_te_soft!E13</f>
-        <v>1715.6</v>
-      </c>
-      <c r="F11" s="8" t="str">
+        <v>1305.1</v>
+      </c>
+      <c r="E11" s="7" t="str">
         <f>[1]decomposition_te_soft!F13</f>
-        <v>0.44</v>
-      </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="F12" s="4"/>
+        <v>5.82</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="str">
-        <f>[1]decomposition_te_soft!G2</f>
-        <v>(6)</v>
-      </c>
-      <c r="C14" s="6" t="str">
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="str">
         <f>[1]decomposition_te_soft!H2</f>
         <v>(7)</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="E14" s="5" t="str">
         <f>[1]decomposition_te_soft!I2</f>
         <v>(8)</v>
       </c>
-      <c r="E14" s="6" t="str">
-        <f>[1]decomposition_te_soft!J2</f>
-        <v>(9)</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="str">
         <f>[1]decomposition_te_soft!G5</f>
-        <v>-5.09</v>
+        <v>-0.0093</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]decomposition_te_soft!H5</f>
-        <v>-0.12</v>
+        <v>-0.014</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>[1]decomposition_te_soft!I5</f>
-        <v>-1.41</v>
+        <f>[1]decomposition_te_soft!J5</f>
+        <v>0.0048</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>[1]decomposition_te_soft!J5</f>
-        <v>-3.56</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <f>[1]decomposition_te_soft!K5</f>
+        <v>0.000081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
       <c r="B16" s="1" t="str">
         <f>[1]decomposition_te_soft!G6</f>
-        <v>(6.33)</v>
+        <v>(0.030)</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]decomposition_te_soft!H6</f>
-        <v>(2.49)</v>
+        <v>(0.013)</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>[1]decomposition_te_soft!I6</f>
-        <v>(2.25)</v>
+        <f>[1]decomposition_te_soft!J6</f>
+        <v>(0.034)</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>[1]decomposition_te_soft!J6</f>
-        <v>(6.25)</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <f>[1]decomposition_te_soft!K6</f>
+        <v>(0.0013)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="str">
         <f>[1]decomposition_te_soft!G8</f>
-        <v>-3.92</v>
+        <v>-0.019</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]decomposition_te_soft!H8</f>
-        <v>-1.27</v>
+        <v>-0.0051</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>[1]decomposition_te_soft!I8</f>
-        <v>-2.28</v>
+        <f>[1]decomposition_te_soft!J8</f>
+        <v>-0.013</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>[1]decomposition_te_soft!J8</f>
-        <v>-0.37</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <f>[1]decomposition_te_soft!K8</f>
+        <v>-0.00067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="str">
         <f>[1]decomposition_te_soft!G9</f>
-        <v>(6.08)</v>
+        <v>(0.030)</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]decomposition_te_soft!H9</f>
-        <v>(2.56)</v>
+        <v>(0.011)</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>[1]decomposition_te_soft!I9</f>
-        <v>(1.99)</v>
+        <f>[1]decomposition_te_soft!J9</f>
+        <v>(0.033)</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>[1]decomposition_te_soft!J9</f>
-        <v>(6.21)</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+        <f>[1]decomposition_te_soft!K9</f>
+        <v>(0.0015)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="9" t="str">
         <f>[1]decomposition_te_soft!G11</f>
-        <v>7525</v>
-      </c>
-      <c r="C20" s="4" t="str">
+        <v>5144</v>
+      </c>
+      <c r="C20" s="9" t="str">
         <f>[1]decomposition_te_soft!H11</f>
-        <v>7525</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f>[1]decomposition_te_soft!I11</f>
-        <v>7525</v>
-      </c>
-      <c r="E20" s="4" t="str">
+        <v>5144</v>
+      </c>
+      <c r="D20" s="9" t="str">
         <f>[1]decomposition_te_soft!J11</f>
-        <v>7525</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
-        <v>9</v>
+        <v>5144</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f>[1]decomposition_te_soft!K11</f>
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="str">
         <f>[1]decomposition_te_soft!G12</f>
-        <v>0.033</v>
+        <v>0.004</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>[1]decomposition_te_soft!H12</f>
-        <v>0.012</v>
+        <v>0.041</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>[1]decomposition_te_soft!I12</f>
-        <v>0.035</v>
+        <f>[1]decomposition_te_soft!J12</f>
+        <v>0.007</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>[1]decomposition_te_soft!J12</f>
-        <v>0.025</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8" t="str">
+        <f>[1]decomposition_te_soft!K12</f>
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7" t="str">
         <f>[1]decomposition_te_soft!G13</f>
-        <v>248.8</v>
-      </c>
-      <c r="C22" s="8" t="str">
+        <v>0.86</v>
+      </c>
+      <c r="C22" s="7" t="str">
         <f>[1]decomposition_te_soft!H13</f>
-        <v>47.0</v>
-      </c>
-      <c r="D22" s="8" t="str">
-        <f>[1]decomposition_te_soft!I13</f>
-        <v>38.1</v>
-      </c>
-      <c r="E22" s="8" t="str">
+        <v>0.24</v>
+      </c>
+      <c r="D22" s="7" t="str">
         <f>[1]decomposition_te_soft!J13</f>
-        <v>163.6</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="F23" s="4"/>
-    </row>
+        <v>0.62</v>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f>[1]decomposition_te_soft!K13</f>
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
